--- a/biology/Botanique/Hesperantha/Hesperantha.xlsx
+++ b/biology/Botanique/Hesperantha/Hesperantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hesperantha est un genre de plantes à fleurs, à corme, de la famille des Iridaceae. Le nom de genre est dérivé du grec hesperos, qui signifie « le soir », et anthos, qui signifie « fleur »[3].
-Il est décrit environ une centaine d'espèces et de sous-espèces, pour la plupart originaire du sud de l'Afrique, mais avec quatre espèces plutôt d'Afrique tropicale. Toutes, sauf une, poussent à partir de cormes[4].[réf. nécessaire] La pousse est idéale dans les zones humides ou en terres ordinaires si elle est bien arrosée[5].
-Le synonyme Schizostylis est encore largement utilisé en horticulture pour la seule espèces rhizomateuse S. coccinea, largement cultivée comme une fleur de jardin, et avec de nombreux cultivars[6]. Le nom commun « lis des Cafres » est à éviter en Afrique du Sud , l'expression « cafres » étant une offense raciale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hesperantha est un genre de plantes à fleurs, à corme, de la famille des Iridaceae. Le nom de genre est dérivé du grec hesperos, qui signifie « le soir », et anthos, qui signifie « fleur ».
+Il est décrit environ une centaine d'espèces et de sous-espèces, pour la plupart originaire du sud de l'Afrique, mais avec quatre espèces plutôt d'Afrique tropicale. Toutes, sauf une, poussent à partir de cormes.[réf. nécessaire] La pousse est idéale dans les zones humides ou en terres ordinaires si elle est bien arrosée.
+Le synonyme Schizostylis est encore largement utilisé en horticulture pour la seule espèces rhizomateuse S. coccinea, largement cultivée comme une fleur de jardin, et avec de nombreux cultivars. Le nom commun « lis des Cafres » est à éviter en Afrique du Sud , l'expression « cafres » étant une offense raciale.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (23 mai 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (23 mai 2018) :
 Hesperantha acuta (Licht. ex Roem. &amp; Schult.) Ker Gawl.
 Hesperantha alborosea Hilliard &amp; B.L. Burtt
 Hesperantha altimontana Goldblatt
@@ -600,7 +614,7 @@
 Hesperantha vaginata (Sweet) Goldblatt
 Hesperantha vernalis Hilliard &amp; B.L. Burtt
 Hesperantha woodii Baker
-Selon Catalogue of Life                                   (23 mai 2018)[7] :
+Selon Catalogue of Life                                   (23 mai 2018) :
 Hesperantha acuta (Licht. ex Roem. &amp; Schult.) Ker Gawl.
 Hesperantha alborosea Hilliard &amp; B.L.Burtt
 Hesperantha altimontana Goldblatt
@@ -692,14 +706,14 @@
 Hesperantha vaginata (Sweet) Goldblatt
 Hesperantha vernalis Hilliard &amp; B.L.Burtt
 Hesperantha woodii Baker
-Selon GRIN            (23 mai 2018)[8] :
+Selon GRIN            (23 mai 2018) :
 Hesperantha angusta (Willd.) Ker Gawl.
 Hesperantha bachmannii Baker
 Hesperantha coccinea (Backh. &amp; Harv.) Goldblatt &amp; J. C. Manning
 Hesperantha cucullata Klatt
 Hesperantha longituba (Klatt) Baker
 Hesperantha stanfordiae L. Bolus
-Selon World Checklist of Selected Plant Families (WCSP)  (23 mai 2018)[9] :
+Selon World Checklist of Selected Plant Families (WCSP)  (23 mai 2018) :
 Hesperantha acuta (Licht. ex Roem. &amp; Schult.) Ker Gawl. (1827)
 Hesperantha alborosea Hilliard &amp; B.L.Burtt (1986)
 Hesperantha altimontana Goldblatt (2003)
@@ -802,10 +816,10 @@
 Hesperantha vaginata (Sweet) Goldblatt (1970)
 Hesperantha vernalis Hilliard &amp; B.L.Burtt (1982)
 Hesperantha woodii Baker (1892)
-Selon NCBI  (23 mai 2018)[10] :
+Selon NCBI  (23 mai 2018) :
 Hesperantha coccinea (Backh. &amp; Harv.) Goldblatt &amp; J.C.Manning
 Hesperantha pseudopilosa Goldblatt
-Selon The Plant List            (23 mai 2018)[11] :
+Selon The Plant List            (23 mai 2018) :
 Hesperantha acuta (Licht. ex Roem. &amp; Schult.) Ker Gawl.
 Hesperantha alborosea Hilliard &amp; B.L.Burtt
 Hesperantha altimontana Goldblatt
@@ -890,7 +904,7 @@
 Hesperantha vaginata (Sweet) Goldblatt
 Hesperantha vernalis Hilliard &amp; B.L.Burtt
 Hesperantha woodii Baker
-Selon Tropicos                                           (23 mai 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 mai 2018) (Attention liste brute contenant possiblement des synonymes) :
 Hesperantha acuta (Licht. ex Roem. &amp; Schult.) Ker Gawl.
 Hesperantha alborosea Hilliard &amp; B.L. Burtt
 Hesperantha alpina (Hook. f.) Pax
